--- a/backend/Plantilla_Carga_Equipos.xlsx
+++ b/backend/Plantilla_Carga_Equipos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claud\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claud\Downloads\project-bolt-sb1-qnazhgui\project\Administracio_gestion_precios_nuevo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD30A6B-5477-4EE6-ADC4-42FB74C689BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B707FF-9EB4-40EF-9AFF-8AE00AF863A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,121 +20,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
-  <si>
-    <t>Codigo_Producto</t>
-  </si>
-  <si>
-    <t>nombre_del_producto</t>
-  </si>
-  <si>
-    <t>modelo</t>
-  </si>
-  <si>
-    <t>categoria</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>largo_cm</t>
-  </si>
-  <si>
-    <t>ancho_cm</t>
-  </si>
-  <si>
-    <t>alto_cm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>peso_kg</t>
   </si>
   <si>
-    <t>linea_de_producto</t>
-  </si>
-  <si>
-    <t>marca</t>
-  </si>
-  <si>
-    <t>marca_motor</t>
-  </si>
-  <si>
-    <t>combustible</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>diametro_mm</t>
-  </si>
-  <si>
-    <t>movilidad</t>
-  </si>
-  <si>
-    <t>rotacion</t>
-  </si>
-  <si>
-    <t>opcional</t>
-  </si>
-  <si>
-    <t>modelo_compatible_manual</t>
-  </si>
-  <si>
-    <t>clasificacion_easysystems</t>
-  </si>
-  <si>
-    <t>numero_caracteres</t>
-  </si>
-  <si>
-    <t>codigo_ea</t>
-  </si>
-  <si>
-    <t>proveedor</t>
-  </si>
-  <si>
-    <t>procedencia</t>
-  </si>
-  <si>
-    <t>familia</t>
-  </si>
-  <si>
-    <t>nombre_comercial</t>
-  </si>
-  <si>
     <t>descripcion</t>
   </si>
   <si>
-    <t>elemento_corte</t>
-  </si>
-  <si>
-    <t>garganta_alimentacion_mm</t>
-  </si>
-  <si>
-    <t>tipo_motor</t>
-  </si>
-  <si>
-    <t>potencia_motor_kw_hp</t>
-  </si>
-  <si>
-    <t>tipo_enganche</t>
-  </si>
-  <si>
-    <t>tipo_chasis</t>
-  </si>
-  <si>
-    <t>capacidad_chasis_velocidad</t>
-  </si>
-  <si>
-    <t>ultima_actualizacion</t>
-  </si>
-  <si>
-    <t>Ejemplo</t>
+    <t>codigo_producto</t>
+  </si>
+  <si>
+    <t>nombre_producto</t>
+  </si>
+  <si>
+    <t>equipo u opcional</t>
+  </si>
+  <si>
+    <t>fecha cotizacion</t>
+  </si>
+  <si>
+    <t>largo_mm</t>
+  </si>
+  <si>
+    <t>ancho_mm</t>
+  </si>
+  <si>
+    <t>alto_mm</t>
+  </si>
+  <si>
+    <t>costo fabrica</t>
+  </si>
+  <si>
+    <t>Modelo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,22 +69,80 @@
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Myriad Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Muli"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Muli"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Myriad Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,24 +165,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{9706F57C-9B53-4A08-981B-53B83E03577E}"/>
+    <cellStyle name="Normal 3 2 2" xfId="2" xr:uid="{CAB98187-92B2-45BB-8180-1513273C1A73}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -501,21 +531,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
     <col min="10" max="10" width="20.88671875" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="1"/>
     <col min="12" max="12" width="14.5546875" style="1" customWidth="1"/>
@@ -543,219 +575,94 @@
     <col min="35" max="35" width="21.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26" ht="28.8">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>35</v>
-      </c>
+    <row r="2" spans="1:26">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
